--- a/src/test/resources/testdata/AquaTruTestData.xlsx
+++ b/src/test/resources/testdata/AquaTruTestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MridulVashistha\eclipse-workspace\AquaTruAutomationTest\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DF63E2-5008-413E-8416-E5BD92CC146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FEA0B0-AAA8-414A-8C61-40F1539752AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1275" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{07382CD4-B33B-5D40-990D-75EE8A0B033C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{07382CD4-B33B-5D40-990D-75EE8A0B033C}"/>
   </bookViews>
   <sheets>
     <sheet name="register1" sheetId="16" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="175">
   <si>
     <t>1</t>
   </si>
@@ -564,19 +564,14 @@
   </si>
   <si>
     <t>$515.06</t>
-  </si>
-  <si>
-    <t>$46.97</t>
-  </si>
-  <si>
-    <t>$565.97</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1916,16 +1911,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49237319-7A38-4A72-BF43-6CB52250660E}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.58203125" customWidth="1"/>
-    <col min="20" max="20" width="12.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.58203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.58203125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="48" x14ac:dyDescent="0.4">
@@ -2008,7 +2003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="48" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="32" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -2080,7 +2075,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="32" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>68</v>
       </c>
@@ -2139,20 +2134,8 @@
       <c r="V3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="W3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>130</v>
-      </c>
     </row>
-    <row r="4" spans="1:26" ht="64" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" ht="48" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -2211,20 +2194,8 @@
       <c r="V4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="W4" t="s">
-        <v>143</v>
-      </c>
-      <c r="X4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="5" spans="1:26" ht="64" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" ht="32" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>70</v>
       </c>
@@ -2283,18 +2254,6 @@
       <c r="V5" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="W5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="6" spans="1:26" ht="48" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
@@ -2355,18 +2314,6 @@
       <c r="V6" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="W6" t="s">
-        <v>149</v>
-      </c>
-      <c r="X6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="7" spans="1:26" ht="48" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
@@ -2427,20 +2374,8 @@
       <c r="V7" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="W7" t="s">
-        <v>79</v>
-      </c>
-      <c r="X7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>153</v>
-      </c>
     </row>
-    <row r="8" spans="1:26" ht="48" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" ht="32" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
@@ -2499,20 +2434,8 @@
       <c r="V8" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="W8" t="s">
-        <v>154</v>
-      </c>
-      <c r="X8" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>156</v>
-      </c>
     </row>
-    <row r="9" spans="1:26" ht="48" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" ht="32" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>116</v>
       </c>
@@ -2571,20 +2494,8 @@
       <c r="V9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="W9" t="s">
-        <v>157</v>
-      </c>
-      <c r="X9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>159</v>
-      </c>
     </row>
-    <row r="10" spans="1:26" ht="64" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" ht="32" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>89</v>
       </c>
@@ -2643,20 +2554,8 @@
       <c r="V10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="W10" t="s">
-        <v>160</v>
-      </c>
-      <c r="X10" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>176</v>
-      </c>
     </row>
-    <row r="11" spans="1:26" ht="64" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" ht="48" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>89</v>
       </c>
@@ -2717,18 +2616,6 @@
       <c r="V11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="W11" t="s">
-        <v>160</v>
-      </c>
-      <c r="X11" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="12" spans="1:26" ht="48" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
@@ -2793,18 +2680,6 @@
       <c r="V12" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="W12" t="s">
-        <v>163</v>
-      </c>
-      <c r="X12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="13" spans="1:26" ht="48" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
@@ -2869,18 +2744,6 @@
       <c r="V13" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="W13" t="s">
-        <v>166</v>
-      </c>
-      <c r="X13" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="14" spans="1:26" ht="64" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
@@ -2945,18 +2808,6 @@
       <c r="V14" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="W14" t="s">
-        <v>94</v>
-      </c>
-      <c r="X14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="15" spans="1:26" ht="64" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
@@ -3019,18 +2870,6 @@
         <v>173</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="W15" t="s">
-        <v>172</v>
-      </c>
-      <c r="X15" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z15" t="s">
         <v>174</v>
       </c>
     </row>
